--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 32268-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 32268-2022.xlsx", "A 32268-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 32268-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 32268-2022.png", "A 32268-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 32268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 32268-2022.docx", "A 32268-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 32268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 32268-2022.docx", "A 32268-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 32268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 32268-2022.docx", "A 32268-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 32268-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 32268-2022.docx", "A 32268-2022")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,27 +717,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 74502-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 74502-2021.xlsx", "A 74502-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 74502-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 74502-2021.png", "A 74502-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 74502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 74502-2021.docx", "A 74502-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 74502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 74502-2021.docx", "A 74502-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 74502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 74502-2021.docx", "A 74502-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 74502-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 74502-2021.docx", "A 74502-2021")</f>
         <v/>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 28874-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 28874-2023.xlsx", "A 28874-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 28874-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 28874-2023.png", "A 28874-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 28874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 28874-2023.docx", "A 28874-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 28874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 28874-2023.docx", "A 28874-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 28874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 28874-2023.docx", "A 28874-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 28874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 28874-2023.docx", "A 28874-2023")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,27 +890,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 48597-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 48597-2019.xlsx", "A 48597-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 48597-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 48597-2019.png", "A 48597-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 48597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 48597-2019.docx", "A 48597-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 48597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 48597-2019.docx", "A 48597-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 48597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 48597-2019.docx", "A 48597-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 48597-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 48597-2019.docx", "A 48597-2019")</f>
         <v/>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,27 +976,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 58790-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 58790-2020.xlsx", "A 58790-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 58790-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 58790-2020.png", "A 58790-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 58790-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 58790-2020.docx", "A 58790-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 58790-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 58790-2020.docx", "A 58790-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 58790-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 58790-2020.docx", "A 58790-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 58790-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 58790-2020.docx", "A 58790-2020")</f>
         <v/>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,27 +1061,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 51114-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 51114-2019.xlsx", "A 51114-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 51114-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 51114-2019.png", "A 51114-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 51114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 51114-2019.docx", "A 51114-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 51114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 51114-2019.docx", "A 51114-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 51114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 51114-2019.docx", "A 51114-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 51114-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 51114-2019.docx", "A 51114-2019")</f>
         <v/>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1146,27 +1146,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 7635-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 7635-2020.xlsx", "A 7635-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 7635-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 7635-2020.png", "A 7635-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 7635-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 7635-2020.docx", "A 7635-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 7635-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 7635-2020.docx", "A 7635-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 7635-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 7635-2020.docx", "A 7635-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 7635-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 7635-2020.docx", "A 7635-2020")</f>
         <v/>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,27 +1231,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 8665-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 8665-2020.xlsx", "A 8665-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 8665-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 8665-2020.png", "A 8665-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 8665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 8665-2020.docx", "A 8665-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 8665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 8665-2020.docx", "A 8665-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 8665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 8665-2020.docx", "A 8665-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 8665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 8665-2020.docx", "A 8665-2020")</f>
         <v/>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1316,27 +1316,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 65104-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 65104-2020.xlsx", "A 65104-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 65104-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 65104-2020.png", "A 65104-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 65104-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 65104-2020.docx", "A 65104-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 65104-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 65104-2020.docx", "A 65104-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 65104-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 65104-2020.docx", "A 65104-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 65104-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 65104-2020.docx", "A 65104-2020")</f>
         <v/>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1401,27 +1401,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 74272-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 74272-2021.xlsx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 74272-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 74272-2021.png", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 74272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 74272-2021.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 74272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 74272-2021.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 74272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 74272-2021.docx", "A 74272-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 74272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 74272-2021.docx", "A 74272-2021")</f>
         <v/>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1486,27 +1486,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 28265-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 28265-2022.xlsx", "A 28265-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 28265-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 28265-2022.png", "A 28265-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 28265-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 28265-2022.docx", "A 28265-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 28265-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 28265-2022.docx", "A 28265-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 28265-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 28265-2022.docx", "A 28265-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 28265-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 28265-2022.docx", "A 28265-2022")</f>
         <v/>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,27 +1571,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 36038-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/artfynd/A 36038-2022.xlsx", "A 36038-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 36038-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/kartor/A 36038-2022.png", "A 36038-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 36038-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomål/A 36038-2022.docx", "A 36038-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 36038-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/klagomålsmail/A 36038-2022.docx", "A 36038-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 36038-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsyn/A 36038-2022.docx", "A 36038-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 36038-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ANGELHOLM/tillsynsmail/A 36038-2022.docx", "A 36038-2022")</f>
         <v/>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y115"/>
+  <dimension ref="A1:Y116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="R114" s="2" t="inlineStr"/>
     </row>
-    <row r="115">
+    <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
           <t>A 40275-2023</t>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7408,6 +7408,63 @@
         <v>0</v>
       </c>
       <c r="R115" s="2" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>A 44448-2023</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45189</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45189</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45189</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45189</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45189</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt ÄNGELHOLM.xlsx
+++ b/Översikt ÄNGELHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y116"/>
+  <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44781</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44560</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43727</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>44146</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43872</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43878</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44172</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44746</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44802</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43340</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43369</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43433</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43469</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43469</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43475</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43503</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43515</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43549</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43595</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43598</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43614</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43706</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43712</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43717</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43717</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43801</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43810</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43810</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43872</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43880</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43894</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43896</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43970</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43984</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44042</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44042</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44077</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>44078</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44098</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>44183</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>44223</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44227</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>44236</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>44257</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>44341</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>44375</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44480</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>44498</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44553</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>44613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>44693</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>44742</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44746</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44762</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44802</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44803</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44806</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44839</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44844</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>44864</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44868</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>44879</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44887</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>44887</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>44888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>44929</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>44952</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         <v>44973</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>44973</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>45012</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>45016</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>45022</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>45048</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>45061</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>45068</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>45075</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45075</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45097</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45099</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45099</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45115</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>45115</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>45117</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45118</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45118</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>45128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45128</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45163</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45169</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45169</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="R115" s="2" t="inlineStr"/>
     </row>
-    <row r="116">
+    <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
           <t>A 44448-2023</t>
@@ -7419,7 +7419,7 @@
         <v>45189</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7465,6 +7465,63 @@
         <v>0</v>
       </c>
       <c r="R116" s="2" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>A 48309-2023</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>ÄNGELHOLM</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
